--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value256.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value256.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9335497662303441</v>
+        <v>1.555558562278748</v>
       </c>
       <c r="B1">
-        <v>0.9918801024550139</v>
+        <v>2.460288524627686</v>
       </c>
       <c r="C1">
-        <v>1.127548202689669</v>
+        <v>2.827755451202393</v>
       </c>
       <c r="D1">
-        <v>1.772835233037964</v>
+        <v>3.284664869308472</v>
       </c>
       <c r="E1">
-        <v>3.502068100235796</v>
+        <v>1.664823055267334</v>
       </c>
     </row>
   </sheetData>
